--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6838032821809</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H2">
-        <v>19.6838032821809</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I2">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J2">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.3547547963114</v>
+        <v>36.51516</v>
       </c>
       <c r="N2">
-        <v>31.3547547963114</v>
+        <v>109.54548</v>
       </c>
       <c r="O2">
-        <v>0.3211788568221431</v>
+        <v>0.3318909895952502</v>
       </c>
       <c r="P2">
-        <v>0.3211788568221431</v>
+        <v>0.3318909895952502</v>
       </c>
       <c r="Q2">
-        <v>617.1808253716117</v>
+        <v>960.0317807546401</v>
       </c>
       <c r="R2">
-        <v>617.1808253716117</v>
+        <v>8640.28602679176</v>
       </c>
       <c r="S2">
-        <v>0.03543317210654184</v>
+        <v>0.04685577940887926</v>
       </c>
       <c r="T2">
-        <v>0.03543317210654184</v>
+        <v>0.04685577940887927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6838032821809</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H3">
-        <v>19.6838032821809</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I3">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J3">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.2288238319008</v>
+        <v>42.26455300000001</v>
       </c>
       <c r="N3">
-        <v>42.2288238319008</v>
+        <v>126.793659</v>
       </c>
       <c r="O3">
-        <v>0.4325661435205718</v>
+        <v>0.3841479626536184</v>
       </c>
       <c r="P3">
-        <v>0.4325661435205718</v>
+        <v>0.3841479626536184</v>
       </c>
       <c r="Q3">
-        <v>831.223861145008</v>
+        <v>1111.190915756329</v>
       </c>
       <c r="R3">
-        <v>831.223861145008</v>
+        <v>10000.71824180696</v>
       </c>
       <c r="S3">
-        <v>0.04772166749231294</v>
+        <v>0.05423332588938092</v>
       </c>
       <c r="T3">
-        <v>0.04772166749231294</v>
+        <v>0.05423332588938093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.6838032821809</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H4">
-        <v>19.6838032821809</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I4">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J4">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.0403904790522</v>
+        <v>31.24183366666666</v>
       </c>
       <c r="N4">
-        <v>24.0403904790522</v>
+        <v>93.72550099999999</v>
       </c>
       <c r="O4">
-        <v>0.246254999657285</v>
+        <v>0.2839610477511313</v>
       </c>
       <c r="P4">
-        <v>0.246254999657285</v>
+        <v>0.2839610477511314</v>
       </c>
       <c r="Q4">
-        <v>473.2063170164781</v>
+        <v>821.3890671449958</v>
       </c>
       <c r="R4">
-        <v>473.2063170164781</v>
+        <v>7392.501604304962</v>
       </c>
       <c r="S4">
-        <v>0.02716740407910753</v>
+        <v>0.04008911549652886</v>
       </c>
       <c r="T4">
-        <v>0.02716740407910753</v>
+        <v>0.04008911549652887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>143.059322363049</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H5">
-        <v>143.059322363049</v>
+        <v>430.417114</v>
       </c>
       <c r="I5">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J5">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.3547547963114</v>
+        <v>36.51516</v>
       </c>
       <c r="N5">
-        <v>31.3547547963114</v>
+        <v>109.54548</v>
       </c>
       <c r="O5">
-        <v>0.3211788568221431</v>
+        <v>0.3318909895952502</v>
       </c>
       <c r="P5">
-        <v>0.3211788568221431</v>
+        <v>0.3318909895952502</v>
       </c>
       <c r="Q5">
-        <v>4485.589974019869</v>
+        <v>5238.91659481608</v>
       </c>
       <c r="R5">
-        <v>4485.589974019869</v>
+        <v>47150.24935334471</v>
       </c>
       <c r="S5">
-        <v>0.2575236867625072</v>
+        <v>0.2556931189457737</v>
       </c>
       <c r="T5">
-        <v>0.2575236867625072</v>
+        <v>0.2556931189457738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>143.059322363049</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H6">
-        <v>143.059322363049</v>
+        <v>430.417114</v>
       </c>
       <c r="I6">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J6">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.2288238319008</v>
+        <v>42.26455300000001</v>
       </c>
       <c r="N6">
-        <v>42.2288238319008</v>
+        <v>126.793659</v>
       </c>
       <c r="O6">
-        <v>0.4325661435205718</v>
+        <v>0.3841479626536184</v>
       </c>
       <c r="P6">
-        <v>0.4325661435205718</v>
+        <v>0.3841479626536184</v>
       </c>
       <c r="Q6">
-        <v>6041.226921580303</v>
+        <v>6063.795642253347</v>
       </c>
       <c r="R6">
-        <v>6041.226921580303</v>
+        <v>54574.16078028013</v>
       </c>
       <c r="S6">
-        <v>0.3468348730992104</v>
+        <v>0.29595256812291</v>
       </c>
       <c r="T6">
-        <v>0.3468348730992104</v>
+        <v>0.29595256812291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>143.059322363049</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H7">
-        <v>143.059322363049</v>
+        <v>430.417114</v>
       </c>
       <c r="I7">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J7">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.0403904790522</v>
+        <v>31.24183366666666</v>
       </c>
       <c r="N7">
-        <v>24.0403904790522</v>
+        <v>93.72550099999999</v>
       </c>
       <c r="O7">
-        <v>0.246254999657285</v>
+        <v>0.2839610477511313</v>
       </c>
       <c r="P7">
-        <v>0.246254999657285</v>
+        <v>0.2839610477511314</v>
       </c>
       <c r="Q7">
-        <v>3439.201971276303</v>
+        <v>4482.339960958234</v>
       </c>
       <c r="R7">
-        <v>3439.201971276303</v>
+        <v>40341.05964862411</v>
       </c>
       <c r="S7">
-        <v>0.1974491597078001</v>
+        <v>0.2187672706846985</v>
       </c>
       <c r="T7">
-        <v>0.1974491597078001</v>
+        <v>0.2187672706846986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.6778584279293</v>
+        <v>16.46418733333334</v>
       </c>
       <c r="H8">
-        <v>15.6778584279293</v>
+        <v>49.39256200000001</v>
       </c>
       <c r="I8">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="J8">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.3547547963114</v>
+        <v>36.51516</v>
       </c>
       <c r="N8">
-        <v>31.3547547963114</v>
+        <v>109.54548</v>
       </c>
       <c r="O8">
-        <v>0.3211788568221431</v>
+        <v>0.3318909895952502</v>
       </c>
       <c r="P8">
-        <v>0.3211788568221431</v>
+        <v>0.3318909895952502</v>
       </c>
       <c r="Q8">
-        <v>491.5754067390073</v>
+        <v>601.1924347466401</v>
       </c>
       <c r="R8">
-        <v>491.5754067390073</v>
+        <v>5410.731912719761</v>
       </c>
       <c r="S8">
-        <v>0.02822199795309411</v>
+        <v>0.02934209124059715</v>
       </c>
       <c r="T8">
-        <v>0.02822199795309411</v>
+        <v>0.02934209124059716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.6778584279293</v>
+        <v>16.46418733333334</v>
       </c>
       <c r="H9">
-        <v>15.6778584279293</v>
+        <v>49.39256200000001</v>
       </c>
       <c r="I9">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="J9">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.2288238319008</v>
+        <v>42.26455300000001</v>
       </c>
       <c r="N9">
-        <v>42.2288238319008</v>
+        <v>126.793659</v>
       </c>
       <c r="O9">
-        <v>0.4325661435205718</v>
+        <v>0.3841479626536184</v>
       </c>
       <c r="P9">
-        <v>0.4325661435205718</v>
+        <v>0.3841479626536184</v>
       </c>
       <c r="Q9">
-        <v>662.0575216145076</v>
+        <v>695.8515181515955</v>
       </c>
       <c r="R9">
-        <v>662.0575216145076</v>
+        <v>6262.663663364359</v>
       </c>
       <c r="S9">
-        <v>0.03800960292904852</v>
+        <v>0.03396206864132744</v>
       </c>
       <c r="T9">
-        <v>0.03800960292904852</v>
+        <v>0.03396206864132745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.6778584279293</v>
+        <v>16.46418733333334</v>
       </c>
       <c r="H10">
-        <v>15.6778584279293</v>
+        <v>49.39256200000001</v>
       </c>
       <c r="I10">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="J10">
-        <v>0.08787003675252009</v>
+        <v>0.08840882145182853</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.0403904790522</v>
+        <v>31.24183366666666</v>
       </c>
       <c r="N10">
-        <v>24.0403904790522</v>
+        <v>93.72550099999999</v>
       </c>
       <c r="O10">
-        <v>0.246254999657285</v>
+        <v>0.2839610477511313</v>
       </c>
       <c r="P10">
-        <v>0.246254999657285</v>
+        <v>0.2839610477511314</v>
       </c>
       <c r="Q10">
-        <v>376.9018384827198</v>
+        <v>514.3714021248402</v>
       </c>
       <c r="R10">
-        <v>376.9018384827198</v>
+        <v>4629.342619123562</v>
       </c>
       <c r="S10">
-        <v>0.02163843587037746</v>
+        <v>0.02510466156990393</v>
       </c>
       <c r="T10">
-        <v>0.02163843587037746</v>
+        <v>0.02510466156990393</v>
       </c>
     </row>
   </sheetData>
